--- a/Excel_Files/Dynamic_Range/2.5_cm/814_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/2.5_cm/814_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>155.268</v>
+        <v>58.672</v>
       </c>
       <c r="D2">
-        <v>134.301</v>
+        <v>48.181</v>
       </c>
       <c r="E2">
-        <v>310.439</v>
+        <v>107.583</v>
       </c>
       <c r="F2">
-        <v>447.951</v>
+        <v>140.763</v>
       </c>
       <c r="G2">
-        <v>209.25</v>
+        <v>80.709</v>
       </c>
       <c r="H2">
-        <v>575.986</v>
+        <v>161</v>
       </c>
       <c r="I2">
-        <v>249.169</v>
+        <v>86.521</v>
       </c>
       <c r="J2">
-        <v>646.187</v>
+        <v>180.956</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>39.399</v>
+        <v>20.204</v>
       </c>
       <c r="D3">
-        <v>56.804</v>
+        <v>25.184</v>
       </c>
       <c r="E3">
-        <v>59.04</v>
+        <v>27.117</v>
       </c>
       <c r="F3">
-        <v>74.825</v>
+        <v>34.348</v>
       </c>
       <c r="G3">
-        <v>77.479</v>
+        <v>35.469</v>
       </c>
       <c r="H3">
-        <v>86.167</v>
+        <v>37.676</v>
       </c>
       <c r="I3">
-        <v>70.28700000000001</v>
+        <v>32.17</v>
       </c>
       <c r="J3">
-        <v>72.44499999999999</v>
+        <v>34.393</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>14.212</v>
+        <v>8.984999999999999</v>
       </c>
       <c r="D4">
-        <v>19.181</v>
+        <v>10.941</v>
       </c>
       <c r="E4">
-        <v>21.119</v>
+        <v>11.776</v>
       </c>
       <c r="F4">
-        <v>16.684</v>
+        <v>10.252</v>
       </c>
       <c r="G4">
-        <v>19.252</v>
+        <v>11.677</v>
       </c>
       <c r="H4">
-        <v>24.648</v>
+        <v>13.877</v>
       </c>
       <c r="I4">
-        <v>27.117</v>
+        <v>15.253</v>
       </c>
       <c r="J4">
-        <v>12.847</v>
+        <v>8.276999999999999</v>
       </c>
     </row>
   </sheetData>
